--- a/biology/Médecine/ADGRE2/ADGRE2.xlsx
+++ b/biology/Médecine/ADGRE2/ADGRE2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ADGRE2 (pour « Adhesion G protein-coupled receptor E2 »), appelé aussi EMR2 (pour « EGF-like module-containing mucin-like hormone receptor-like 2 ») ou CD312, est une protéine dont le gène est ADGRE2 situé sur le chromosome 19 humain.
 </t>
@@ -511,11 +523,13 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est exprimé à la surface de certains monocytes, mastocytes pulmonaires[3] et de certains macrophages et a une structure d'hétérodimère[4].
-Il est proche structurellement de la protéine CD97 et comporte plusieurs domaines de type facteur de croissance épidermique[5].
-L'un des ligands est le sulfate de chondroïtine, intervenant dans les liaisons intercellulaires[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est exprimé à la surface de certains monocytes, mastocytes pulmonaires et de certains macrophages et a une structure d'hétérodimère.
+Il est proche structurellement de la protéine CD97 et comporte plusieurs domaines de type facteur de croissance épidermique.
+L'un des ligands est le sulfate de chondroïtine, intervenant dans les liaisons intercellulaires.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un variant du gène est responsable d'une urticaire survenant à la vibration[7].
-Son expression est augmentée au niveau des polynucléaires neutrophiles en cas d'inflammation, régulant l'activité de ces derniers[8]. Il module, en particulier, l'excrétion de cytokines par ces cellules[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un variant du gène est responsable d'une urticaire survenant à la vibration.
+Son expression est augmentée au niveau des polynucléaires neutrophiles en cas d'inflammation, régulant l'activité de ces derniers. Il module, en particulier, l'excrétion de cytokines par ces cellules.
 </t>
         </is>
       </c>
